--- a/excel_upload/template.xlsx
+++ b/excel_upload/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A_install\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E318C125-6573-4FEA-8980-01B0CC83E744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$270</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1820,7 +1821,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -2166,26 +2167,26 @@
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 2 2" xfId="3"/>
-    <cellStyle name="常规 2 2 2" xfId="4"/>
-    <cellStyle name="常规 2 3" xfId="5"/>
-    <cellStyle name="常规 2 4" xfId="6"/>
-    <cellStyle name="常规 2 5" xfId="7"/>
-    <cellStyle name="常规 2 6" xfId="9"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 3 2" xfId="8"/>
-    <cellStyle name="常规 3 3" xfId="12"/>
-    <cellStyle name="常规 3 4" xfId="13"/>
-    <cellStyle name="常规 3 5" xfId="14"/>
-    <cellStyle name="常规 3 5 2" xfId="15"/>
-    <cellStyle name="常规 3 5 2 2" xfId="17"/>
-    <cellStyle name="常规 3 5 2 3" xfId="18"/>
-    <cellStyle name="常规 3 5 2 4" xfId="20"/>
-    <cellStyle name="常规 4" xfId="10"/>
-    <cellStyle name="常规 5" xfId="11"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="常规 6 2" xfId="19"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 2 6" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 3 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 3 5" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 3 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 3 5 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 3 5 2 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 3 5 2 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 6" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2462,7 +2463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -17958,7 +17959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N270"/>
   <sheetViews>
     <sheetView topLeftCell="A189" workbookViewId="0">
@@ -26520,10 +26521,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108:H108 G111:H111 G113:H113 G2:H87 G89:H106 G115:H270">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108:H108 G111:H111 G113:H113 G2:H87 G89:H106 G115:H270" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"处理,回归,关闭,挂起,延迟,跟踪"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G107:H107 G88:H88 G112:H112 G114:H114 G109:H110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G107:H107 G88:H88 G112:H112 G114:H114 G109:H110" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"处理,回归,关闭,挂起,延迟,跟踪,需求"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26533,7 +26534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:CH64"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -30880,7 +30881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:CI65"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">

--- a/excel_upload/template.xlsx
+++ b/excel_upload/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68571C11-9F34-425F-95B7-3EBB06DDD982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C41E18-A23B-4902-8E30-5D4F390AAFA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1.1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="621">
   <si>
     <t>bug_submit_date</t>
   </si>
@@ -1810,6 +1810,223 @@
   </si>
   <si>
     <t>icss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icss_disp_20200109</t>
+  </si>
+  <si>
+    <t>icss_disp_20200110</t>
+  </si>
+  <si>
+    <t>icss_disp_20200111</t>
+  </si>
+  <si>
+    <t>icss_disp_20200112</t>
+  </si>
+  <si>
+    <t>icss_disp_20200115</t>
+  </si>
+  <si>
+    <t>icss_disp_20200116</t>
+  </si>
+  <si>
+    <t>icss_disp_20200117</t>
+  </si>
+  <si>
+    <t>icss_disp_20200118</t>
+  </si>
+  <si>
+    <t>icss_disp_20200119</t>
+  </si>
+  <si>
+    <t>icss_disp_20200120</t>
+  </si>
+  <si>
+    <t>icss_disp_20200121</t>
+  </si>
+  <si>
+    <t>icss_disp_20200122</t>
+  </si>
+  <si>
+    <t>=CONCATENATE(B62:D62)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-GYX-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-GYX-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-GYX-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度台不能发起组呼3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度台不能发起组呼2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试版本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭版本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重开次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交者索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度台不能发起组呼4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度台不能发起组呼5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度台不能发起组呼6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-GYX-4</t>
+  </si>
+  <si>
+    <t>K-GYX-5</t>
+  </si>
+  <si>
+    <t>K-GYX-6</t>
+  </si>
+  <si>
+    <t>调度台不能发起组呼7</t>
+  </si>
+  <si>
+    <t>调度台不能发起组呼8</t>
+  </si>
+  <si>
+    <t>调度台不能发起组呼9</t>
+  </si>
+  <si>
+    <t>调度台不能发起组呼10</t>
+  </si>
+  <si>
+    <t>调度台不能发起组呼11</t>
+  </si>
+  <si>
+    <t>调度台不能发起组呼12</t>
+  </si>
+  <si>
+    <t>K-GYX-7</t>
+  </si>
+  <si>
+    <t>K-GYX-8</t>
+  </si>
+  <si>
+    <t>K-GYX-9</t>
+  </si>
+  <si>
+    <t>K-GYX-10</t>
+  </si>
+  <si>
+    <t>K-GYX-11</t>
+  </si>
+  <si>
+    <t>K-GYX-12</t>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>handle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unkown</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2059,7 +2276,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2159,6 +2376,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2461,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="J105" workbookViewId="0">
+      <selection activeCell="R119" sqref="R119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17955,181 +18174,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360365CA-23F8-472B-8762-D7656CFD36B0}">
-  <dimension ref="A1:Y270"/>
+  <dimension ref="A1:Y269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>459</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>579</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>581</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>582</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>583</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>584</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>586</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>587</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>588</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>589</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>590</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>14</v>
+        <v>592</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>15</v>
+        <v>593</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>585</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>17</v>
+        <v>594</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1808</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="R2" s="3">
-        <v>1</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="U2" s="3">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="X2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>1808</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>578</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -18140,8 +18305,8 @@
       <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
-        <v>2</v>
+      <c r="I3" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>50</v>
@@ -18150,173 +18315,327 @@
         <v>352</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
+      <c r="Q3" s="4">
+        <v>2</v>
+      </c>
+      <c r="R3" s="5">
+        <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="U3" s="3">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="X3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="3"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1808</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2</v>
+      </c>
+      <c r="R4" s="5">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>576</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="2"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="2"/>
+    </row>
+    <row r="5" spans="1:25" s="2" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1808</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>599</v>
+      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="2"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="2"/>
+    </row>
+    <row r="6" spans="1:25" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1808</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="5">
+        <v>2</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>600</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="2"/>
       <c r="W6" s="1"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="2"/>
+    </row>
+    <row r="7" spans="1:25" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1808</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>2</v>
+      </c>
+      <c r="R7" s="5">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>601</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="2"/>
       <c r="W7" s="1"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1808</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>2</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>608</v>
+      </c>
       <c r="T8" s="1"/>
       <c r="U8" s="3"/>
       <c r="V8" s="2"/>
@@ -18325,25 +18644,61 @@
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1808</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>2</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>609</v>
+      </c>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
       <c r="V9" s="2"/>
@@ -18352,25 +18707,61 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1808</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>2</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>610</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
       <c r="V10" s="2"/>
@@ -18379,25 +18770,61 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1808</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="3"/>
       <c r="V11" s="2"/>
@@ -18406,25 +18833,61 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1808</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>612</v>
+      </c>
       <c r="T12" s="1"/>
       <c r="U12" s="3"/>
       <c r="V12" s="2"/>
@@ -18433,25 +18896,61 @@
       <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1808</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>613</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="3"/>
       <c r="V13" s="2"/>
@@ -18461,9 +18960,9 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
@@ -18488,9 +18987,9 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -18515,14 +19014,14 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -18542,9 +19041,9 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -18569,9 +19068,9 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -18596,9 +19095,9 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -18623,9 +19122,9 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="2"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -18650,9 +19149,9 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -18677,9 +19176,9 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -18704,7 +19203,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="2"/>
       <c r="D23" s="16"/>
       <c r="E23" s="2"/>
@@ -18731,7 +19230,7 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2"/>
       <c r="D24" s="16"/>
       <c r="E24" s="2"/>
@@ -18758,9 +19257,9 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -18785,9 +19284,9 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="15"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -18812,9 +19311,9 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -18839,9 +19338,9 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -18866,9 +19365,9 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -18893,9 +19392,9 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="2"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -18920,9 +19419,9 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="16"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -18947,9 +19446,9 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -18974,9 +19473,9 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2"/>
-      <c r="B33" s="14"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="16"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -19001,9 +19500,9 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2"/>
-      <c r="B34" s="13"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -19028,9 +19527,9 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="16"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -19055,9 +19554,9 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2"/>
-      <c r="B36" s="13"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -19082,9 +19581,9 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2"/>
-      <c r="B37" s="14"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -19109,9 +19608,9 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="2"/>
-      <c r="B38" s="13"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -19136,9 +19635,9 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="2"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -19163,9 +19662,9 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="2"/>
-      <c r="B40" s="13"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -19190,9 +19689,9 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="2"/>
-      <c r="B41" s="14"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -19217,9 +19716,9 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="2"/>
-      <c r="B42" s="13"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="15"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -19271,9 +19770,9 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="2"/>
-      <c r="B44" s="14"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -19298,9 +19797,9 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="2"/>
-      <c r="B45" s="13"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="15"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -19325,9 +19824,9 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="2"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="16"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -19352,9 +19851,9 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="2"/>
-      <c r="B47" s="13"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="15"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -19379,9 +19878,9 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="2"/>
-      <c r="B48" s="14"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="16"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -19406,9 +19905,9 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="2"/>
-      <c r="B49" s="13"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="15"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -19433,9 +19932,9 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="2"/>
-      <c r="B50" s="14"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="16"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -19460,9 +19959,9 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="2"/>
-      <c r="B51" s="13"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="15"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -19487,9 +19986,9 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="2"/>
-      <c r="B52" s="14"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="16"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -19514,9 +20013,9 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="2"/>
-      <c r="B53" s="13"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="15"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -19541,9 +20040,9 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="2"/>
-      <c r="B54" s="14"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -19568,9 +20067,9 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="2"/>
-      <c r="B55" s="13"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -19595,9 +20094,9 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="2"/>
-      <c r="B56" s="14"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="16"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -19622,9 +20121,9 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="2"/>
-      <c r="B57" s="13"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="15"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -19676,7 +20175,7 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="2"/>
-      <c r="B59" s="14"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="2"/>
       <c r="D59" s="16"/>
       <c r="E59" s="2"/>
@@ -19703,7 +20202,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="2"/>
-      <c r="B60" s="13"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="2"/>
       <c r="D60" s="16"/>
       <c r="E60" s="2"/>
@@ -19730,9 +20229,9 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="2"/>
-      <c r="B61" s="14"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="16"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -19757,9 +20256,9 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="2"/>
-      <c r="B62" s="13"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="15"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -19784,9 +20283,9 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="2"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="16"/>
+      <c r="D63" s="15"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -19811,9 +20310,9 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="2"/>
-      <c r="B64" s="13"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="15"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -19838,9 +20337,9 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="2"/>
-      <c r="B65" s="14"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="16"/>
+      <c r="D65" s="15"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -19865,9 +20364,9 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="2"/>
-      <c r="B66" s="13"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="15"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -19892,9 +20391,9 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="2"/>
-      <c r="B67" s="14"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="16"/>
+      <c r="D67" s="15"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -19919,9 +20418,9 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="2"/>
-      <c r="B68" s="13"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="15"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -19946,9 +20445,9 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="2"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="16"/>
+      <c r="D69" s="15"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -20027,9 +20526,9 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="2"/>
-      <c r="B72" s="13"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="15"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -20054,9 +20553,9 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="2"/>
-      <c r="B73" s="14"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="16"/>
+      <c r="D73" s="15"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -20081,9 +20580,9 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="2"/>
-      <c r="B74" s="13"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="15"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -20108,9 +20607,9 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="2"/>
-      <c r="B75" s="14"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="16"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -20135,9 +20634,9 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="2"/>
-      <c r="B76" s="13"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="15"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -20162,9 +20661,9 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="2"/>
-      <c r="B77" s="14"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="16"/>
+      <c r="D77" s="15"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -20191,7 +20690,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="13"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="15"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -20218,7 +20717,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="13"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="16"/>
+      <c r="D79" s="15"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -20245,7 +20744,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="13"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="15"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -20272,7 +20771,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="13"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="16"/>
+      <c r="D81" s="15"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -20299,7 +20798,7 @@
       <c r="A82" s="2"/>
       <c r="B82" s="13"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="15"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -20326,7 +20825,7 @@
       <c r="A83" s="2"/>
       <c r="B83" s="13"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="16"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -20353,7 +20852,7 @@
       <c r="A84" s="2"/>
       <c r="B84" s="13"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="15"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -20378,7 +20877,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="2"/>
-      <c r="B85" s="13"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="2"/>
       <c r="D85" s="16"/>
       <c r="E85" s="2"/>
@@ -20405,9 +20904,9 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="2"/>
-      <c r="B86" s="14"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="16"/>
+      <c r="D86" s="15"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -20432,9 +20931,9 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="2"/>
-      <c r="B87" s="13"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="15"/>
+      <c r="D87" s="16"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -20459,9 +20958,9 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="2"/>
-      <c r="B88" s="14"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="16"/>
+      <c r="D88" s="15"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -20486,9 +20985,9 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="2"/>
-      <c r="B89" s="13"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="15"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -20513,9 +21012,9 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="2"/>
-      <c r="B90" s="14"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="16"/>
+      <c r="D90" s="15"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -20540,9 +21039,9 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="2"/>
-      <c r="B91" s="13"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="15"/>
+      <c r="D91" s="16"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -20567,9 +21066,9 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="2"/>
-      <c r="B92" s="14"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="16"/>
+      <c r="D92" s="15"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -20594,9 +21093,9 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="2"/>
-      <c r="B93" s="13"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="15"/>
+      <c r="D93" s="16"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -20648,9 +21147,9 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="2"/>
-      <c r="B95" s="14"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="16"/>
+      <c r="D95" s="15"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -20675,9 +21174,9 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="2"/>
-      <c r="B96" s="13"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="15"/>
+      <c r="D96" s="16"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -20702,9 +21201,9 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" s="2"/>
-      <c r="B97" s="14"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="16"/>
+      <c r="D97" s="15"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -20729,9 +21228,9 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" s="2"/>
-      <c r="B98" s="13"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="15"/>
+      <c r="D98" s="16"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -20756,9 +21255,9 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="2"/>
-      <c r="B99" s="14"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="16"/>
+      <c r="D99" s="15"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -20783,9 +21282,9 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" s="2"/>
-      <c r="B100" s="13"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="15"/>
+      <c r="D100" s="16"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -20837,15 +21336,15 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" s="2"/>
-      <c r="B102" s="14"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="16"/>
+      <c r="D102" s="15"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="5"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
+      <c r="J102" s="21"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -20864,15 +21363,15 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" s="2"/>
-      <c r="B103" s="13"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="15"/>
+      <c r="D103" s="16"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="5"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="21"/>
+      <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -20972,9 +21471,9 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" s="2"/>
-      <c r="B107" s="14"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="16"/>
+      <c r="D107" s="15"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -20999,9 +21498,9 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2"/>
-      <c r="B108" s="13"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="15"/>
+      <c r="D108" s="16"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -21026,9 +21525,9 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" s="2"/>
-      <c r="B109" s="14"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="16"/>
+      <c r="D109" s="15"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -21080,9 +21579,9 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" s="2"/>
-      <c r="B111" s="13"/>
+      <c r="B111" s="14"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="15"/>
+      <c r="D111" s="16"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -21107,9 +21606,9 @@
     </row>
     <row r="112" spans="1:25">
       <c r="A112" s="2"/>
-      <c r="B112" s="14"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="16"/>
+      <c r="D112" s="15"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -21134,9 +21633,9 @@
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="2"/>
-      <c r="B113" s="13"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="15"/>
+      <c r="D113" s="16"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -21161,9 +21660,9 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="2"/>
-      <c r="B114" s="14"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="16"/>
+      <c r="D114" s="15"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -21188,9 +21687,9 @@
     </row>
     <row r="115" spans="1:25">
       <c r="A115" s="2"/>
-      <c r="B115" s="13"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="15"/>
+      <c r="D115" s="16"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -21215,9 +21714,9 @@
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="2"/>
-      <c r="B116" s="14"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="16"/>
+      <c r="D116" s="15"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -21242,9 +21741,9 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" s="2"/>
-      <c r="B117" s="13"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="15"/>
+      <c r="D117" s="16"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -21269,9 +21768,9 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="2"/>
-      <c r="B118" s="14"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="16"/>
+      <c r="D118" s="15"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -21296,9 +21795,9 @@
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="2"/>
-      <c r="B119" s="13"/>
+      <c r="B119" s="14"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="15"/>
+      <c r="D119" s="16"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -21350,9 +21849,9 @@
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="2"/>
-      <c r="B121" s="14"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="16"/>
+      <c r="D121" s="15"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -21377,9 +21876,9 @@
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="2"/>
-      <c r="B122" s="13"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="15"/>
+      <c r="D122" s="16"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -21404,9 +21903,9 @@
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="2"/>
-      <c r="B123" s="14"/>
+      <c r="B123" s="13"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="16"/>
+      <c r="D123" s="15"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -21431,9 +21930,9 @@
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="2"/>
-      <c r="B124" s="13"/>
+      <c r="B124" s="14"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="15"/>
+      <c r="D124" s="16"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -21458,9 +21957,9 @@
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="2"/>
-      <c r="B125" s="14"/>
+      <c r="B125" s="13"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="16"/>
+      <c r="D125" s="15"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -21485,9 +21984,9 @@
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="2"/>
-      <c r="B126" s="13"/>
+      <c r="B126" s="14"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="15"/>
+      <c r="D126" s="16"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -21512,9 +22011,9 @@
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="2"/>
-      <c r="B127" s="14"/>
+      <c r="B127" s="13"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="16"/>
+      <c r="D127" s="15"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -21539,9 +22038,9 @@
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="2"/>
-      <c r="B128" s="13"/>
+      <c r="B128" s="14"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="15"/>
+      <c r="D128" s="16"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -21566,9 +22065,9 @@
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="2"/>
-      <c r="B129" s="14"/>
+      <c r="B129" s="13"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="16"/>
+      <c r="D129" s="15"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -21593,9 +22092,9 @@
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="2"/>
-      <c r="B130" s="13"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="15"/>
+      <c r="D130" s="16"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -21620,9 +22119,9 @@
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="2"/>
-      <c r="B131" s="14"/>
+      <c r="B131" s="13"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="16"/>
+      <c r="D131" s="15"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -21647,9 +22146,9 @@
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="2"/>
-      <c r="B132" s="13"/>
+      <c r="B132" s="14"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="15"/>
+      <c r="D132" s="16"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -21674,9 +22173,9 @@
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="2"/>
-      <c r="B133" s="14"/>
+      <c r="B133" s="13"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="16"/>
+      <c r="D133" s="15"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -21701,9 +22200,9 @@
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="2"/>
-      <c r="B134" s="13"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="15"/>
+      <c r="D134" s="16"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -21728,9 +22227,9 @@
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="2"/>
-      <c r="B135" s="14"/>
+      <c r="B135" s="13"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="16"/>
+      <c r="D135" s="15"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -21755,9 +22254,9 @@
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="2"/>
-      <c r="B136" s="13"/>
+      <c r="B136" s="14"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="15"/>
+      <c r="D136" s="16"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -21782,9 +22281,9 @@
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="2"/>
-      <c r="B137" s="14"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="16"/>
+      <c r="D137" s="15"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -21809,9 +22308,9 @@
     </row>
     <row r="138" spans="1:25">
       <c r="A138" s="2"/>
-      <c r="B138" s="13"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="15"/>
+      <c r="D138" s="16"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -21836,9 +22335,9 @@
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="2"/>
-      <c r="B139" s="14"/>
+      <c r="B139" s="13"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="16"/>
+      <c r="D139" s="15"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -21863,9 +22362,9 @@
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="2"/>
-      <c r="B140" s="13"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="15"/>
+      <c r="D140" s="16"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -21890,9 +22389,9 @@
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="2"/>
-      <c r="B141" s="14"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="16"/>
+      <c r="D141" s="15"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -21917,9 +22416,9 @@
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="2"/>
-      <c r="B142" s="13"/>
+      <c r="B142" s="14"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="15"/>
+      <c r="D142" s="16"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -21944,9 +22443,9 @@
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="2"/>
-      <c r="B143" s="14"/>
+      <c r="B143" s="13"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="16"/>
+      <c r="D143" s="15"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -21971,9 +22470,9 @@
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="2"/>
-      <c r="B144" s="13"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="15"/>
+      <c r="D144" s="16"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -21998,9 +22497,9 @@
     </row>
     <row r="145" spans="1:25">
       <c r="A145" s="2"/>
-      <c r="B145" s="14"/>
+      <c r="B145" s="13"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="16"/>
+      <c r="D145" s="15"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -22025,9 +22524,9 @@
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="2"/>
-      <c r="B146" s="13"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="15"/>
+      <c r="D146" s="16"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -22052,9 +22551,9 @@
     </row>
     <row r="147" spans="1:25">
       <c r="A147" s="2"/>
-      <c r="B147" s="14"/>
+      <c r="B147" s="13"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="16"/>
+      <c r="D147" s="15"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -22079,9 +22578,9 @@
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="2"/>
-      <c r="B148" s="13"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="15"/>
+      <c r="D148" s="16"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -22106,9 +22605,9 @@
     </row>
     <row r="149" spans="1:25">
       <c r="A149" s="2"/>
-      <c r="B149" s="14"/>
+      <c r="B149" s="13"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="16"/>
+      <c r="D149" s="15"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -22133,9 +22632,9 @@
     </row>
     <row r="150" spans="1:25">
       <c r="A150" s="2"/>
-      <c r="B150" s="13"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="15"/>
+      <c r="D150" s="16"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -22160,9 +22659,9 @@
     </row>
     <row r="151" spans="1:25">
       <c r="A151" s="2"/>
-      <c r="B151" s="14"/>
+      <c r="B151" s="13"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="16"/>
+      <c r="D151" s="15"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -22187,9 +22686,9 @@
     </row>
     <row r="152" spans="1:25">
       <c r="A152" s="2"/>
-      <c r="B152" s="13"/>
+      <c r="B152" s="14"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="15"/>
+      <c r="D152" s="16"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -22222,7 +22721,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="5"/>
       <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
+      <c r="J153" s="3"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -22241,15 +22740,15 @@
     </row>
     <row r="154" spans="1:25">
       <c r="A154" s="2"/>
-      <c r="B154" s="14"/>
+      <c r="B154" s="13"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="16"/>
+      <c r="D154" s="15"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="5"/>
       <c r="I154" s="2"/>
-      <c r="J154" s="3"/>
+      <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -22268,9 +22767,9 @@
     </row>
     <row r="155" spans="1:25">
       <c r="A155" s="2"/>
-      <c r="B155" s="13"/>
+      <c r="B155" s="14"/>
       <c r="C155" s="2"/>
-      <c r="D155" s="15"/>
+      <c r="D155" s="16"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -22295,9 +22794,9 @@
     </row>
     <row r="156" spans="1:25">
       <c r="A156" s="2"/>
-      <c r="B156" s="14"/>
+      <c r="B156" s="13"/>
       <c r="C156" s="2"/>
-      <c r="D156" s="16"/>
+      <c r="D156" s="15"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -22322,9 +22821,9 @@
     </row>
     <row r="157" spans="1:25">
       <c r="A157" s="2"/>
-      <c r="B157" s="13"/>
+      <c r="B157" s="14"/>
       <c r="C157" s="2"/>
-      <c r="D157" s="15"/>
+      <c r="D157" s="16"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -22349,9 +22848,9 @@
     </row>
     <row r="158" spans="1:25">
       <c r="A158" s="2"/>
-      <c r="B158" s="14"/>
+      <c r="B158" s="13"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="16"/>
+      <c r="D158" s="15"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -22376,9 +22875,9 @@
     </row>
     <row r="159" spans="1:25">
       <c r="A159" s="2"/>
-      <c r="B159" s="13"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="2"/>
-      <c r="D159" s="15"/>
+      <c r="D159" s="16"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -22403,9 +22902,9 @@
     </row>
     <row r="160" spans="1:25">
       <c r="A160" s="2"/>
-      <c r="B160" s="14"/>
+      <c r="B160" s="13"/>
       <c r="C160" s="2"/>
-      <c r="D160" s="16"/>
+      <c r="D160" s="15"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -22430,9 +22929,9 @@
     </row>
     <row r="161" spans="1:25">
       <c r="A161" s="2"/>
-      <c r="B161" s="13"/>
+      <c r="B161" s="14"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="15"/>
+      <c r="D161" s="16"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -22457,9 +22956,9 @@
     </row>
     <row r="162" spans="1:25">
       <c r="A162" s="2"/>
-      <c r="B162" s="14"/>
+      <c r="B162" s="13"/>
       <c r="C162" s="2"/>
-      <c r="D162" s="16"/>
+      <c r="D162" s="15"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -22484,9 +22983,9 @@
     </row>
     <row r="163" spans="1:25">
       <c r="A163" s="2"/>
-      <c r="B163" s="13"/>
+      <c r="B163" s="14"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="15"/>
+      <c r="D163" s="16"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -22511,9 +23010,9 @@
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="2"/>
-      <c r="B164" s="14"/>
+      <c r="B164" s="13"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="16"/>
+      <c r="D164" s="15"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -22538,9 +23037,9 @@
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="2"/>
-      <c r="B165" s="13"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="15"/>
+      <c r="D165" s="16"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -22565,9 +23064,9 @@
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="2"/>
-      <c r="B166" s="14"/>
+      <c r="B166" s="13"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="16"/>
+      <c r="D166" s="15"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -22592,9 +23091,9 @@
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="2"/>
-      <c r="B167" s="13"/>
+      <c r="B167" s="14"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="15"/>
+      <c r="D167" s="16"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -22619,9 +23118,9 @@
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="2"/>
-      <c r="B168" s="14"/>
+      <c r="B168" s="13"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="16"/>
+      <c r="D168" s="15"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -22646,9 +23145,9 @@
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="2"/>
-      <c r="B169" s="13"/>
+      <c r="B169" s="14"/>
       <c r="C169" s="2"/>
-      <c r="D169" s="15"/>
+      <c r="D169" s="16"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -22673,9 +23172,9 @@
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="2"/>
-      <c r="B170" s="14"/>
+      <c r="B170" s="13"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="16"/>
+      <c r="D170" s="15"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -22700,9 +23199,9 @@
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="2"/>
-      <c r="B171" s="13"/>
+      <c r="B171" s="14"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="15"/>
+      <c r="D171" s="16"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -22727,9 +23226,9 @@
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="2"/>
-      <c r="B172" s="14"/>
+      <c r="B172" s="13"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="16"/>
+      <c r="D172" s="15"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -22754,9 +23253,9 @@
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="2"/>
-      <c r="B173" s="13"/>
+      <c r="B173" s="14"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="15"/>
+      <c r="D173" s="16"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -22781,9 +23280,9 @@
     </row>
     <row r="174" spans="1:25">
       <c r="A174" s="2"/>
-      <c r="B174" s="14"/>
+      <c r="B174" s="13"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="16"/>
+      <c r="D174" s="15"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -22835,9 +23334,9 @@
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="2"/>
-      <c r="B176" s="13"/>
+      <c r="B176" s="14"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="15"/>
+      <c r="D176" s="16"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -22862,9 +23361,9 @@
     </row>
     <row r="177" spans="1:25">
       <c r="A177" s="2"/>
-      <c r="B177" s="14"/>
+      <c r="B177" s="13"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="16"/>
+      <c r="D177" s="15"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -22889,9 +23388,9 @@
     </row>
     <row r="178" spans="1:25">
       <c r="A178" s="2"/>
-      <c r="B178" s="13"/>
+      <c r="B178" s="14"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="15"/>
+      <c r="D178" s="16"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -22916,9 +23415,9 @@
     </row>
     <row r="179" spans="1:25">
       <c r="A179" s="2"/>
-      <c r="B179" s="14"/>
+      <c r="B179" s="13"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="16"/>
+      <c r="D179" s="15"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -22943,9 +23442,9 @@
     </row>
     <row r="180" spans="1:25">
       <c r="A180" s="2"/>
-      <c r="B180" s="13"/>
+      <c r="B180" s="14"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="15"/>
+      <c r="D180" s="16"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -22970,9 +23469,9 @@
     </row>
     <row r="181" spans="1:25">
       <c r="A181" s="2"/>
-      <c r="B181" s="14"/>
+      <c r="B181" s="13"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="16"/>
+      <c r="D181" s="15"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -22997,9 +23496,9 @@
     </row>
     <row r="182" spans="1:25">
       <c r="A182" s="2"/>
-      <c r="B182" s="13"/>
+      <c r="B182" s="14"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="15"/>
+      <c r="D182" s="16"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -23024,9 +23523,9 @@
     </row>
     <row r="183" spans="1:25">
       <c r="A183" s="2"/>
-      <c r="B183" s="14"/>
+      <c r="B183" s="13"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="16"/>
+      <c r="D183" s="15"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -23051,9 +23550,9 @@
     </row>
     <row r="184" spans="1:25">
       <c r="A184" s="2"/>
-      <c r="B184" s="13"/>
+      <c r="B184" s="14"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="15"/>
+      <c r="D184" s="16"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -23078,9 +23577,9 @@
     </row>
     <row r="185" spans="1:25">
       <c r="A185" s="2"/>
-      <c r="B185" s="14"/>
+      <c r="B185" s="13"/>
       <c r="C185" s="2"/>
-      <c r="D185" s="16"/>
+      <c r="D185" s="15"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -23105,9 +23604,9 @@
     </row>
     <row r="186" spans="1:25">
       <c r="A186" s="2"/>
-      <c r="B186" s="13"/>
+      <c r="B186" s="14"/>
       <c r="C186" s="2"/>
-      <c r="D186" s="15"/>
+      <c r="D186" s="16"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -23132,9 +23631,9 @@
     </row>
     <row r="187" spans="1:25">
       <c r="A187" s="2"/>
-      <c r="B187" s="14"/>
+      <c r="B187" s="13"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="16"/>
+      <c r="D187" s="15"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -23159,9 +23658,9 @@
     </row>
     <row r="188" spans="1:25">
       <c r="A188" s="2"/>
-      <c r="B188" s="13"/>
+      <c r="B188" s="14"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="15"/>
+      <c r="D188" s="16"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -23186,9 +23685,9 @@
     </row>
     <row r="189" spans="1:25">
       <c r="A189" s="2"/>
-      <c r="B189" s="14"/>
+      <c r="B189" s="13"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="16"/>
+      <c r="D189" s="15"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -23213,9 +23712,9 @@
     </row>
     <row r="190" spans="1:25">
       <c r="A190" s="2"/>
-      <c r="B190" s="13"/>
+      <c r="B190" s="14"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="15"/>
+      <c r="D190" s="16"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -23240,9 +23739,9 @@
     </row>
     <row r="191" spans="1:25">
       <c r="A191" s="2"/>
-      <c r="B191" s="14"/>
+      <c r="B191" s="13"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="16"/>
+      <c r="D191" s="15"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -23267,9 +23766,9 @@
     </row>
     <row r="192" spans="1:25">
       <c r="A192" s="2"/>
-      <c r="B192" s="13"/>
+      <c r="B192" s="14"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="15"/>
+      <c r="D192" s="16"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -23294,9 +23793,9 @@
     </row>
     <row r="193" spans="1:25">
       <c r="A193" s="2"/>
-      <c r="B193" s="14"/>
+      <c r="B193" s="13"/>
       <c r="C193" s="2"/>
-      <c r="D193" s="16"/>
+      <c r="D193" s="15"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -23321,9 +23820,9 @@
     </row>
     <row r="194" spans="1:25">
       <c r="A194" s="2"/>
-      <c r="B194" s="13"/>
+      <c r="B194" s="14"/>
       <c r="C194" s="2"/>
-      <c r="D194" s="15"/>
+      <c r="D194" s="16"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -23348,9 +23847,9 @@
     </row>
     <row r="195" spans="1:25">
       <c r="A195" s="2"/>
-      <c r="B195" s="14"/>
+      <c r="B195" s="13"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="16"/>
+      <c r="D195" s="15"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -23375,9 +23874,9 @@
     </row>
     <row r="196" spans="1:25">
       <c r="A196" s="2"/>
-      <c r="B196" s="13"/>
+      <c r="B196" s="14"/>
       <c r="C196" s="2"/>
-      <c r="D196" s="15"/>
+      <c r="D196" s="16"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -23402,9 +23901,9 @@
     </row>
     <row r="197" spans="1:25">
       <c r="A197" s="2"/>
-      <c r="B197" s="14"/>
+      <c r="B197" s="13"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="16"/>
+      <c r="D197" s="15"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -23429,7 +23928,7 @@
     </row>
     <row r="198" spans="1:25">
       <c r="A198" s="2"/>
-      <c r="B198" s="13"/>
+      <c r="B198" s="14"/>
       <c r="C198" s="2"/>
       <c r="D198" s="15"/>
       <c r="E198" s="2"/>
@@ -23456,7 +23955,7 @@
     </row>
     <row r="199" spans="1:25">
       <c r="A199" s="2"/>
-      <c r="B199" s="14"/>
+      <c r="B199" s="13"/>
       <c r="C199" s="2"/>
       <c r="D199" s="15"/>
       <c r="E199" s="2"/>
@@ -23483,9 +23982,9 @@
     </row>
     <row r="200" spans="1:25">
       <c r="A200" s="2"/>
-      <c r="B200" s="13"/>
+      <c r="B200" s="14"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="15"/>
+      <c r="D200" s="16"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -23510,9 +24009,9 @@
     </row>
     <row r="201" spans="1:25">
       <c r="A201" s="2"/>
-      <c r="B201" s="14"/>
+      <c r="B201" s="13"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="16"/>
+      <c r="D201" s="15"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -23537,9 +24036,9 @@
     </row>
     <row r="202" spans="1:25">
       <c r="A202" s="2"/>
-      <c r="B202" s="13"/>
+      <c r="B202" s="14"/>
       <c r="C202" s="2"/>
-      <c r="D202" s="15"/>
+      <c r="D202" s="16"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -23564,9 +24063,9 @@
     </row>
     <row r="203" spans="1:25">
       <c r="A203" s="2"/>
-      <c r="B203" s="14"/>
+      <c r="B203" s="13"/>
       <c r="C203" s="2"/>
-      <c r="D203" s="16"/>
+      <c r="D203" s="15"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -23591,9 +24090,9 @@
     </row>
     <row r="204" spans="1:25">
       <c r="A204" s="2"/>
-      <c r="B204" s="13"/>
+      <c r="B204" s="14"/>
       <c r="C204" s="2"/>
-      <c r="D204" s="15"/>
+      <c r="D204" s="16"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
@@ -23618,9 +24117,9 @@
     </row>
     <row r="205" spans="1:25">
       <c r="A205" s="2"/>
-      <c r="B205" s="14"/>
+      <c r="B205" s="13"/>
       <c r="C205" s="2"/>
-      <c r="D205" s="16"/>
+      <c r="D205" s="15"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -23645,9 +24144,9 @@
     </row>
     <row r="206" spans="1:25">
       <c r="A206" s="2"/>
-      <c r="B206" s="13"/>
+      <c r="B206" s="14"/>
       <c r="C206" s="2"/>
-      <c r="D206" s="15"/>
+      <c r="D206" s="16"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -23672,9 +24171,9 @@
     </row>
     <row r="207" spans="1:25">
       <c r="A207" s="2"/>
-      <c r="B207" s="14"/>
+      <c r="B207" s="13"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="16"/>
+      <c r="D207" s="15"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -23699,9 +24198,9 @@
     </row>
     <row r="208" spans="1:25">
       <c r="A208" s="2"/>
-      <c r="B208" s="13"/>
+      <c r="B208" s="14"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="15"/>
+      <c r="D208" s="16"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -23726,9 +24225,9 @@
     </row>
     <row r="209" spans="1:25">
       <c r="A209" s="2"/>
-      <c r="B209" s="14"/>
+      <c r="B209" s="13"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="16"/>
+      <c r="D209" s="15"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -23753,9 +24252,9 @@
     </row>
     <row r="210" spans="1:25">
       <c r="A210" s="2"/>
-      <c r="B210" s="13"/>
+      <c r="B210" s="14"/>
       <c r="C210" s="2"/>
-      <c r="D210" s="15"/>
+      <c r="D210" s="16"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -23807,9 +24306,9 @@
     </row>
     <row r="212" spans="1:25">
       <c r="A212" s="2"/>
-      <c r="B212" s="14"/>
+      <c r="B212" s="13"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="16"/>
+      <c r="D212" s="15"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -23834,9 +24333,9 @@
     </row>
     <row r="213" spans="1:25">
       <c r="A213" s="2"/>
-      <c r="B213" s="13"/>
+      <c r="B213" s="14"/>
       <c r="C213" s="2"/>
-      <c r="D213" s="15"/>
+      <c r="D213" s="16"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -23861,9 +24360,9 @@
     </row>
     <row r="214" spans="1:25">
       <c r="A214" s="2"/>
-      <c r="B214" s="14"/>
+      <c r="B214" s="13"/>
       <c r="C214" s="2"/>
-      <c r="D214" s="16"/>
+      <c r="D214" s="15"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -23888,9 +24387,9 @@
     </row>
     <row r="215" spans="1:25">
       <c r="A215" s="2"/>
-      <c r="B215" s="13"/>
+      <c r="B215" s="14"/>
       <c r="C215" s="2"/>
-      <c r="D215" s="15"/>
+      <c r="D215" s="16"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -23915,9 +24414,9 @@
     </row>
     <row r="216" spans="1:25">
       <c r="A216" s="2"/>
-      <c r="B216" s="14"/>
+      <c r="B216" s="13"/>
       <c r="C216" s="2"/>
-      <c r="D216" s="16"/>
+      <c r="D216" s="15"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -23942,9 +24441,9 @@
     </row>
     <row r="217" spans="1:25">
       <c r="A217" s="2"/>
-      <c r="B217" s="13"/>
+      <c r="B217" s="14"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="15"/>
+      <c r="D217" s="16"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
@@ -23969,9 +24468,9 @@
     </row>
     <row r="218" spans="1:25">
       <c r="A218" s="2"/>
-      <c r="B218" s="14"/>
+      <c r="B218" s="13"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="16"/>
+      <c r="D218" s="15"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -24023,9 +24522,9 @@
     </row>
     <row r="220" spans="1:25">
       <c r="A220" s="2"/>
-      <c r="B220" s="13"/>
+      <c r="B220" s="14"/>
       <c r="C220" s="2"/>
-      <c r="D220" s="15"/>
+      <c r="D220" s="16"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -24050,9 +24549,9 @@
     </row>
     <row r="221" spans="1:25">
       <c r="A221" s="2"/>
-      <c r="B221" s="14"/>
+      <c r="B221" s="13"/>
       <c r="C221" s="2"/>
-      <c r="D221" s="16"/>
+      <c r="D221" s="15"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -24968,9 +25467,9 @@
     </row>
     <row r="255" spans="1:25">
       <c r="A255" s="2"/>
-      <c r="B255" s="13"/>
+      <c r="B255" s="14"/>
       <c r="C255" s="2"/>
-      <c r="D255" s="15"/>
+      <c r="D255" s="16"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
@@ -24995,9 +25494,9 @@
     </row>
     <row r="256" spans="1:25">
       <c r="A256" s="2"/>
-      <c r="B256" s="14"/>
+      <c r="B256" s="13"/>
       <c r="C256" s="2"/>
-      <c r="D256" s="16"/>
+      <c r="D256" s="15"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
@@ -25022,9 +25521,9 @@
     </row>
     <row r="257" spans="1:25">
       <c r="A257" s="2"/>
-      <c r="B257" s="13"/>
+      <c r="B257" s="14"/>
       <c r="C257" s="2"/>
-      <c r="D257" s="15"/>
+      <c r="D257" s="16"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
@@ -25049,9 +25548,9 @@
     </row>
     <row r="258" spans="1:25">
       <c r="A258" s="2"/>
-      <c r="B258" s="14"/>
+      <c r="B258" s="13"/>
       <c r="C258" s="2"/>
-      <c r="D258" s="16"/>
+      <c r="D258" s="15"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
@@ -25076,9 +25575,9 @@
     </row>
     <row r="259" spans="1:25">
       <c r="A259" s="2"/>
-      <c r="B259" s="13"/>
+      <c r="B259" s="14"/>
       <c r="C259" s="2"/>
-      <c r="D259" s="15"/>
+      <c r="D259" s="16"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
@@ -25103,9 +25602,9 @@
     </row>
     <row r="260" spans="1:25">
       <c r="A260" s="2"/>
-      <c r="B260" s="14"/>
+      <c r="B260" s="13"/>
       <c r="C260" s="2"/>
-      <c r="D260" s="16"/>
+      <c r="D260" s="15"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
@@ -25130,9 +25629,9 @@
     </row>
     <row r="261" spans="1:25">
       <c r="A261" s="2"/>
-      <c r="B261" s="13"/>
+      <c r="B261" s="14"/>
       <c r="C261" s="2"/>
-      <c r="D261" s="15"/>
+      <c r="D261" s="16"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
@@ -25159,7 +25658,7 @@
       <c r="A262" s="2"/>
       <c r="B262" s="14"/>
       <c r="C262" s="2"/>
-      <c r="D262" s="16"/>
+      <c r="D262" s="15"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -25186,7 +25685,7 @@
       <c r="A263" s="2"/>
       <c r="B263" s="14"/>
       <c r="C263" s="2"/>
-      <c r="D263" s="15"/>
+      <c r="D263" s="16"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
@@ -25240,7 +25739,7 @@
       <c r="A265" s="2"/>
       <c r="B265" s="14"/>
       <c r="C265" s="2"/>
-      <c r="D265" s="16"/>
+      <c r="D265" s="15"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
@@ -25267,7 +25766,7 @@
       <c r="A266" s="2"/>
       <c r="B266" s="14"/>
       <c r="C266" s="2"/>
-      <c r="D266" s="15"/>
+      <c r="D266" s="16"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -25294,7 +25793,7 @@
       <c r="A267" s="2"/>
       <c r="B267" s="14"/>
       <c r="C267" s="2"/>
-      <c r="D267" s="16"/>
+      <c r="D267" s="15"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
@@ -25319,9 +25818,9 @@
     </row>
     <row r="268" spans="1:25">
       <c r="A268" s="2"/>
-      <c r="B268" s="14"/>
+      <c r="B268" s="13"/>
       <c r="C268" s="2"/>
-      <c r="D268" s="15"/>
+      <c r="D268" s="16"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -25371,36 +25870,10 @@
       <c r="X269" s="3"/>
       <c r="Y269" s="2"/>
     </row>
-    <row r="270" spans="1:25">
-      <c r="A270" s="2"/>
-      <c r="B270" s="13"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="16"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="5"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-      <c r="Q270" s="1"/>
-      <c r="R270" s="3"/>
-      <c r="S270" s="2"/>
-      <c r="T270" s="1"/>
-      <c r="U270" s="3"/>
-      <c r="V270" s="2"/>
-      <c r="W270" s="1"/>
-      <c r="X270" s="3"/>
-      <c r="Y270" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25408,8 +25881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N270"/>
   <sheetViews>
-    <sheetView topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N270"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -33983,8 +34456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:CH64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:P45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -38328,10 +38801,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:CI65"/>
+  <dimension ref="B3:CI76"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -48082,7 +48555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:25">
+    <row r="49" spans="2:25">
       <c r="F49">
         <v>0</v>
       </c>
@@ -48144,7 +48617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="6:25">
+    <row r="50" spans="2:25">
       <c r="F50">
         <v>3</v>
       </c>
@@ -48206,7 +48679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="6:25">
+    <row r="51" spans="2:25">
       <c r="F51">
         <v>3</v>
       </c>
@@ -48268,7 +48741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="6:25">
+    <row r="52" spans="2:25">
       <c r="F52">
         <v>3</v>
       </c>
@@ -48330,7 +48803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="6:25">
+    <row r="53" spans="2:25">
       <c r="F53">
         <v>3</v>
       </c>
@@ -48353,7 +48826,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="6:25">
+    <row r="54" spans="2:25">
       <c r="F54">
         <v>3</v>
       </c>
@@ -48376,7 +48849,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="6:25">
+    <row r="55" spans="2:25">
       <c r="F55">
         <v>3</v>
       </c>
@@ -48399,7 +48872,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="6:25">
+    <row r="56" spans="2:25">
       <c r="F56">
         <v>3</v>
       </c>
@@ -48422,7 +48895,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="6:25">
+    <row r="57" spans="2:25">
       <c r="F57">
         <v>3</v>
       </c>
@@ -48445,7 +48918,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="6:25">
+    <row r="58" spans="2:25">
       <c r="F58">
         <v>3</v>
       </c>
@@ -48468,7 +48941,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="6:25">
+    <row r="59" spans="2:25">
       <c r="F59">
         <v>3</v>
       </c>
@@ -48491,7 +48964,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="6:25">
+    <row r="60" spans="2:25">
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -48511,7 +48984,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="6:25">
+    <row r="61" spans="2:25">
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -48531,7 +49004,23 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="6:25">
+    <row r="62" spans="2:25">
+      <c r="B62" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="G62" t="str">
+        <f>B62&amp;"_"&amp;C62&amp;"_"&amp;D62</f>
+        <v>1808_icss_icss_disp_20200108</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -48551,7 +49040,20 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="6:25">
+    <row r="63" spans="2:25">
+      <c r="B63" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G63" s="2" t="str">
+        <f t="shared" ref="G63:G76" si="21">B63&amp;"_"&amp;C63&amp;"_"&amp;D63</f>
+        <v>1808_icss_icss_disp_20200109</v>
+      </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -48571,7 +49073,20 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="6:25">
+    <row r="64" spans="2:25">
+      <c r="B64" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G64" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200110</v>
+      </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -48591,7 +49106,20 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="8:25">
+    <row r="65" spans="2:25">
+      <c r="B65" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G65" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200111</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -48611,6 +49139,171 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
+    <row r="66" spans="2:25">
+      <c r="B66" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G66" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200112</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25">
+      <c r="B67" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200113</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25">
+      <c r="B68" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200114</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25">
+      <c r="B69" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G69" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200115</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25">
+      <c r="B70" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G70" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200116</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25">
+      <c r="B71" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G71" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200117</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25">
+      <c r="B72" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G72" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200118</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25">
+      <c r="B73" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G73" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200119</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25">
+      <c r="B74" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G74" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200120</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25">
+      <c r="B75" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G75" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200121</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25">
+      <c r="B76" s="39">
+        <v>1808</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G76" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>1808_icss_icss_disp_20200122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
